--- a/data/trans_orig/P36BPD14_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{352CE1FC-9C58-4820-A277-16CD917C3A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E31D0B8-0412-44B7-88F8-B2D992F6569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D27477C-05B8-4DD2-8B0D-96BEBE2755F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E84DDD0-328A-4B9D-884A-4608396599A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,337 +74,334 @@
     <t>10,96%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>Una por semana</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>Dos o más por semana</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>Una por semana</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>Dos o más por semana</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>10,43%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>9,96%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71CB36D-1A4A-4A6B-82BD-482B5A8C64B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39E99B2-F28B-46A9-B060-28FD8FB75F9C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1475,10 +1472,10 @@
         <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>915</v>
@@ -1487,13 +1484,13 @@
         <v>733798</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,13 +1558,13 @@
         <v>290847</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>527</v>
@@ -1576,10 +1573,10 @@
         <v>359962</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>101</v>
@@ -1594,10 +1591,10 @@
         <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1609,13 @@
         <v>1477778</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>2223</v>
@@ -1627,28 +1624,28 @@
         <v>1605288</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>3691</v>
       </c>
       <c r="N17" s="7">
-        <v>3083066</v>
+        <v>3083065</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,13 +1660,13 @@
         <v>1595113</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>2589</v>
@@ -1678,13 +1675,13 @@
         <v>1820525</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>4191</v>
@@ -1693,13 +1690,13 @@
         <v>3415638</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,7 +1738,7 @@
         <v>8687</v>
       </c>
       <c r="N19" s="7">
-        <v>7149513</v>
+        <v>7149512</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD14_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E31D0B8-0412-44B7-88F8-B2D992F6569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{387DE76A-9D1F-4FB3-8F2E-1EF412CE7E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E84DDD0-328A-4B9D-884A-4608396599A9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F7CEE4E3-AB94-4ECC-8131-858489328F46}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -71,91 +71,91 @@
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
   </si>
   <si>
     <t>Una por semana</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
   </si>
   <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,244 +164,247 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39E99B2-F28B-46A9-B060-28FD8FB75F9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281EB49B-08D2-46C4-B1B0-AA6B2A296CB7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,7 +940,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="7">
-        <v>58820</v>
+        <v>55881</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,7 +955,7 @@
         <v>154</v>
       </c>
       <c r="I4" s="7">
-        <v>83457</v>
+        <v>77089</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,7 +970,7 @@
         <v>226</v>
       </c>
       <c r="N4" s="7">
-        <v>142277</v>
+        <v>132970</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,7 +991,7 @@
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>255022</v>
+        <v>234674</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,7 +1006,7 @@
         <v>725</v>
       </c>
       <c r="I5" s="7">
-        <v>433236</v>
+        <v>383109</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,7 +1021,7 @@
         <v>1055</v>
       </c>
       <c r="N5" s="7">
-        <v>688258</v>
+        <v>617783</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,7 +1042,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="7">
-        <v>222818</v>
+        <v>219657</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1054,7 +1057,7 @@
         <v>543</v>
       </c>
       <c r="I6" s="7">
-        <v>317020</v>
+        <v>293222</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1069,7 +1072,7 @@
         <v>825</v>
       </c>
       <c r="N6" s="7">
-        <v>539839</v>
+        <v>512879</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1090,7 +1093,7 @@
         <v>684</v>
       </c>
       <c r="D7" s="7">
-        <v>536660</v>
+        <v>510212</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1105,7 +1108,7 @@
         <v>1422</v>
       </c>
       <c r="I7" s="7">
-        <v>833714</v>
+        <v>753420</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1120,7 +1123,7 @@
         <v>2106</v>
       </c>
       <c r="N7" s="7">
-        <v>1370374</v>
+        <v>1263632</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1143,7 +1146,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>174907</v>
+        <v>174084</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1158,7 +1161,7 @@
         <v>267</v>
       </c>
       <c r="I8" s="7">
-        <v>198673</v>
+        <v>183765</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1173,7 +1176,7 @@
         <v>420</v>
       </c>
       <c r="N8" s="7">
-        <v>373580</v>
+        <v>357849</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1194,7 +1197,7 @@
         <v>866</v>
       </c>
       <c r="D9" s="7">
-        <v>952600</v>
+        <v>889004</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1209,7 +1212,7 @@
         <v>1162</v>
       </c>
       <c r="I9" s="7">
-        <v>926053</v>
+        <v>846102</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1224,7 +1227,7 @@
         <v>2028</v>
       </c>
       <c r="N9" s="7">
-        <v>1878653</v>
+        <v>1735106</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1245,7 +1248,7 @@
         <v>967</v>
       </c>
       <c r="D10" s="7">
-        <v>1028552</v>
+        <v>1221523</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1260,7 +1263,7 @@
         <v>1484</v>
       </c>
       <c r="I10" s="7">
-        <v>1113449</v>
+        <v>1197146</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1275,7 +1278,7 @@
         <v>2451</v>
       </c>
       <c r="N10" s="7">
-        <v>2142001</v>
+        <v>2418668</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1296,7 +1299,7 @@
         <v>1986</v>
       </c>
       <c r="D11" s="7">
-        <v>2156059</v>
+        <v>2284611</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1311,7 +1314,7 @@
         <v>2913</v>
       </c>
       <c r="I11" s="7">
-        <v>2238175</v>
+        <v>2227012</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1326,7 +1329,7 @@
         <v>4899</v>
       </c>
       <c r="N11" s="7">
-        <v>4394234</v>
+        <v>4511623</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1349,7 +1352,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>57121</v>
+        <v>60029</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1364,7 +1367,7 @@
         <v>106</v>
       </c>
       <c r="I12" s="7">
-        <v>77831</v>
+        <v>72238</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1379,7 +1382,7 @@
         <v>159</v>
       </c>
       <c r="N12" s="7">
-        <v>134952</v>
+        <v>132267</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1400,7 +1403,7 @@
         <v>272</v>
       </c>
       <c r="D13" s="7">
-        <v>270155</v>
+        <v>250209</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1415,7 +1418,7 @@
         <v>336</v>
       </c>
       <c r="I13" s="7">
-        <v>245999</v>
+        <v>223301</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1430,7 +1433,7 @@
         <v>608</v>
       </c>
       <c r="N13" s="7">
-        <v>516155</v>
+        <v>473510</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1451,7 +1454,7 @@
         <v>353</v>
       </c>
       <c r="D14" s="7">
-        <v>343742</v>
+        <v>334474</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1466,31 +1469,31 @@
         <v>562</v>
       </c>
       <c r="I14" s="7">
-        <v>390056</v>
+        <v>364924</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>915</v>
       </c>
       <c r="N14" s="7">
-        <v>733798</v>
+        <v>699399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,7 +1505,7 @@
         <v>678</v>
       </c>
       <c r="D15" s="7">
-        <v>671018</v>
+        <v>644712</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1517,7 +1520,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1532,7 +1535,7 @@
         <v>1682</v>
       </c>
       <c r="N15" s="7">
-        <v>1384905</v>
+        <v>1305175</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1555,46 +1558,46 @@
         <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>290847</v>
+        <v>289994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>527</v>
       </c>
       <c r="I16" s="7">
-        <v>359962</v>
+        <v>333092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>805</v>
       </c>
       <c r="N16" s="7">
-        <v>650809</v>
+        <v>623086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,46 +1609,46 @@
         <v>1468</v>
       </c>
       <c r="D17" s="7">
-        <v>1477778</v>
+        <v>1373886</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>2223</v>
       </c>
       <c r="I17" s="7">
-        <v>1605288</v>
+        <v>1452511</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>3691</v>
       </c>
       <c r="N17" s="7">
-        <v>3083065</v>
+        <v>2826398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,46 +1660,46 @@
         <v>1602</v>
       </c>
       <c r="D18" s="7">
-        <v>1595113</v>
+        <v>1775654</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>2589</v>
       </c>
       <c r="I18" s="7">
-        <v>1820525</v>
+        <v>1855292</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>4191</v>
       </c>
       <c r="N18" s="7">
-        <v>3415638</v>
+        <v>3630946</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1711,7 @@
         <v>3348</v>
       </c>
       <c r="D19" s="7">
-        <v>3363738</v>
+        <v>3439535</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1723,7 +1726,7 @@
         <v>5339</v>
       </c>
       <c r="I19" s="7">
-        <v>3785775</v>
+        <v>3640895</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1738,7 +1741,7 @@
         <v>8687</v>
       </c>
       <c r="N19" s="7">
-        <v>7149512</v>
+        <v>7080430</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
